--- a/03.Progress/02.Pacbio/Exp_data_split/exam_samples.xlsx
+++ b/03.Progress/02.Pacbio/Exp_data_split/exam_samples.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shawn/My_Repo/P.sibiricum/03.Progress/02.Pacbio/Exp_data_split/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EC990C-98A1-814C-A6B4-A84288A3BEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB358B2A-DC04-154D-A9FE-2272A690D69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="-720" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{73999594-A4AF-E04E-ADEA-7C0DE6E19E92}"/>
+    <workbookView xWindow="38400" yWindow="-740" windowWidth="38400" windowHeight="21120" activeTab="3" xr2:uid="{73999594-A4AF-E04E-ADEA-7C0DE6E19E92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="147">
   <si>
     <t>Sample</t>
   </si>
@@ -457,16 +458,44 @@
   </si>
   <si>
     <t>Size_2_1.neg.raw</t>
+  </si>
+  <si>
+    <t>notation</t>
+  </si>
+  <si>
+    <t>M2-4 = T2-3</t>
+  </si>
+  <si>
+    <t>4-4, 4-2, 7-2</t>
+  </si>
+  <si>
+    <t>M7-3 = M9-3</t>
+  </si>
+  <si>
+    <t>9-3 D-1</t>
+  </si>
+  <si>
+    <t>M4-4 = T4-1</t>
+  </si>
+  <si>
+    <t>3-1, 3-3, 2-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -492,9 +521,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -812,7 +842,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1275,10 +1305,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA74611B-3C51-4D46-AFEA-42BDE1469604}">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O24" sqref="O24:R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1292,6 +1322,8 @@
     <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -1647,7 +1679,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -1655,7 +1687,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -1663,7 +1695,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>105</v>
       </c>
@@ -1671,7 +1703,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>107</v>
       </c>
@@ -1679,7 +1711,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>109</v>
       </c>
@@ -1687,7 +1719,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>110</v>
       </c>
@@ -1695,7 +1727,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>112</v>
       </c>
@@ -1709,7 +1741,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>113</v>
       </c>
@@ -1734,8 +1766,20 @@
       <c r="L24" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O24" t="s">
+        <v>15</v>
+      </c>
+      <c r="P24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>1</v>
+      </c>
+      <c r="R24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>114</v>
       </c>
@@ -1760,8 +1804,20 @@
       <c r="L25" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O25" t="s">
+        <v>16</v>
+      </c>
+      <c r="P25" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>8</v>
+      </c>
+      <c r="R25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>116</v>
       </c>
@@ -1786,8 +1842,20 @@
       <c r="L26" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O26" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>27</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>118</v>
       </c>
@@ -1812,8 +1880,20 @@
       <c r="L27" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O27" t="s">
+        <v>18</v>
+      </c>
+      <c r="P27" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>29</v>
+      </c>
+      <c r="R27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>120</v>
       </c>
@@ -1838,8 +1918,20 @@
       <c r="L28" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O28" t="s">
+        <v>19</v>
+      </c>
+      <c r="P28" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>14</v>
+      </c>
+      <c r="R28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>122</v>
       </c>
@@ -1858,8 +1950,20 @@
       <c r="L29" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>4</v>
+      </c>
+      <c r="R29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>124</v>
       </c>
@@ -1878,8 +1982,20 @@
       <c r="L30" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O30" t="s">
+        <v>21</v>
+      </c>
+      <c r="P30" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>6</v>
+      </c>
+      <c r="R30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>126</v>
       </c>
@@ -1899,17 +2015,17 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>73</v>
       </c>
       <c r="B32" t="s">
         <v>89</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="2" t="s">
         <v>92</v>
       </c>
       <c r="K32" t="s">
@@ -1946,10 +2062,10 @@
       <c r="B34" t="s">
         <v>131</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="2" t="s">
         <v>138</v>
       </c>
       <c r="K34" t="s">
@@ -2045,6 +2161,135 @@
       </c>
       <c r="B39" t="s">
         <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CA71C9-EF29-CF4E-91AC-2B222D2AB95F}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
